--- a/artfynd/A 45015-2019.xlsx
+++ b/artfynd/A 45015-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86420981</v>
+        <v>110346530</v>
       </c>
       <c r="B2" t="n">
-        <v>77605</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,41 +696,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>967</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vassbo, Dlr</t>
+          <t>Norr om Frönberget, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>368308.0259557186</v>
+        <v>367360.8492108851</v>
       </c>
       <c r="R2" t="n">
-        <v>6874909.796945255</v>
+        <v>6875537.09217203</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,27 +753,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-08-19</t>
+          <t>2023-06-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-08-19</t>
+          <t>2023-06-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs inventering.</t>
+          <t>Växer på sälg. Sälgen har dött av kalhyggesbruket.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -783,28 +782,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110346530</v>
+        <v>86420981</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>77605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,40 +817,41 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>967</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(L.) Hue</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Norr om Frönberget, Dlr</t>
+          <t>Vassbo, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>367360.8492108851</v>
+        <v>368308.0259557186</v>
       </c>
       <c r="R3" t="n">
-        <v>6875537.09217203</v>
+        <v>6874909.796945255</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -874,27 +875,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2019-08-19</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2019-08-19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Växer på sälg. Sälgen har dött av kalhyggesbruket.</t>
+          <t>Påträffad under Sveaskogs inventering.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,19 +904,18 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
